--- a/847/16-DanhGiaTieuChi-847.xlsx
+++ b/847/16-DanhGiaTieuChi-847.xlsx
@@ -135,17 +135,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -591,39 +591,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -646,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -657,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
